--- a/C#/Common Uses/Template Use/Template.xlsx
+++ b/C#/Common Uses/Template Use/Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECHO\MySvn\SampleExplorer\Trunk\GemBox.SampleExplorer\GemBox.SampleExplorer.Web\Content\Data\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ECHO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87FF10D-9278-4AC0-A01D-CDED858DC204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -307,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -322,13 +323,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,8 +346,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,12 +376,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,22 +405,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>66677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1980968</xdr:colOff>
+      <xdr:colOff>2059306</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>619055</xdr:rowOff>
+      <xdr:rowOff>612031</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB42F7B-9B05-443F-B3B4-06C8E3935ED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106DCE77-667C-44A5-B618-EDE881F00DF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -427,7 +429,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -440,8 +442,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="257175"/>
-          <a:ext cx="1857143" cy="561905"/>
+          <a:off x="190501" y="257177"/>
+          <a:ext cx="2011680" cy="545354"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -749,15 +751,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -770,10 +770,10 @@
   <sheetData>
     <row r="2" spans="2:5" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -784,24 +784,24 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -810,29 +810,29 @@
       <c r="E8" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
@@ -845,47 +845,47 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="2"/>
       <c r="D18" s="7">
         <v>35</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <f>C18*D18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="20">
         <f>SUM(E17:E19)</f>
         <v>0</v>
       </c>
